--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.153510333333333</v>
+        <v>0.006228666666666667</v>
       </c>
       <c r="H2">
-        <v>3.460531</v>
+        <v>0.018686</v>
       </c>
       <c r="I2">
-        <v>0.9322382920351384</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9322382920351383</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N2">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O2">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P2">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q2">
-        <v>82.12621412449457</v>
+        <v>0.09129779244555557</v>
       </c>
       <c r="R2">
-        <v>739.135927120451</v>
+        <v>0.8216801320100001</v>
       </c>
       <c r="S2">
-        <v>0.5563012685385558</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="T2">
-        <v>0.5563012685385558</v>
+        <v>0.2345581433878665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.153510333333333</v>
+        <v>0.006228666666666667</v>
       </c>
       <c r="H3">
-        <v>3.460531</v>
+        <v>0.018686</v>
       </c>
       <c r="I3">
-        <v>0.9322382920351384</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9322382920351383</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N3">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q3">
-        <v>36.56093796733367</v>
+        <v>0.1974199008353333</v>
       </c>
       <c r="R3">
-        <v>329.048441706003</v>
+        <v>1.776779107518</v>
       </c>
       <c r="S3">
-        <v>0.2476541307426588</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="T3">
-        <v>0.2476541307426588</v>
+        <v>0.5072022462686253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.153510333333333</v>
+        <v>0.006228666666666667</v>
       </c>
       <c r="H4">
-        <v>3.460531</v>
+        <v>0.018686</v>
       </c>
       <c r="I4">
-        <v>0.9322382920351384</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9322382920351383</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,400 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N4">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q4">
-        <v>18.938278437681</v>
+        <v>0.1005154031568889</v>
       </c>
       <c r="R4">
-        <v>170.444505939129</v>
+        <v>0.9046386284120002</v>
       </c>
       <c r="S4">
-        <v>0.1282828927539238</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="T4">
-        <v>0.1282828927539238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.006228666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.018686</v>
-      </c>
-      <c r="I5">
-        <v>0.005033853106638431</v>
-      </c>
-      <c r="J5">
-        <v>0.005033853106638431</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>71.19677366666667</v>
-      </c>
-      <c r="N5">
-        <v>213.590321</v>
-      </c>
-      <c r="O5">
-        <v>0.5967372004470155</v>
-      </c>
-      <c r="P5">
-        <v>0.5967372004470156</v>
-      </c>
-      <c r="Q5">
-        <v>0.4434609709117778</v>
-      </c>
-      <c r="R5">
-        <v>3.991148738206001</v>
-      </c>
-      <c r="S5">
-        <v>0.003003887410316929</v>
-      </c>
-      <c r="T5">
-        <v>0.00300388741031693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.006228666666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.018686</v>
-      </c>
-      <c r="I6">
-        <v>0.005033853106638431</v>
-      </c>
-      <c r="J6">
-        <v>0.005033853106638431</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>31.69537100000001</v>
-      </c>
-      <c r="N6">
-        <v>95.08611300000001</v>
-      </c>
-      <c r="O6">
-        <v>0.2656553939680093</v>
-      </c>
-      <c r="P6">
-        <v>0.2656553939680093</v>
-      </c>
-      <c r="Q6">
-        <v>0.1974199008353334</v>
-      </c>
-      <c r="R6">
-        <v>1.776779107518</v>
-      </c>
-      <c r="S6">
-        <v>0.00133727023022112</v>
-      </c>
-      <c r="T6">
-        <v>0.00133727023022112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.006228666666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.018686</v>
-      </c>
-      <c r="I7">
-        <v>0.005033853106638431</v>
-      </c>
-      <c r="J7">
-        <v>0.005033853106638431</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16.417953</v>
-      </c>
-      <c r="N7">
-        <v>49.25385900000001</v>
-      </c>
-      <c r="O7">
-        <v>0.1376074055849752</v>
-      </c>
-      <c r="P7">
-        <v>0.1376074055849752</v>
-      </c>
-      <c r="Q7">
-        <v>0.102261956586</v>
-      </c>
-      <c r="R7">
-        <v>0.9203576092740001</v>
-      </c>
-      <c r="S7">
-        <v>0.0006926954661003818</v>
-      </c>
-      <c r="T7">
-        <v>0.000692695466100382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.07761666666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.23285</v>
-      </c>
-      <c r="I8">
-        <v>0.06272785485822319</v>
-      </c>
-      <c r="J8">
-        <v>0.06272785485822319</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>71.19677366666667</v>
-      </c>
-      <c r="N8">
-        <v>213.590321</v>
-      </c>
-      <c r="O8">
-        <v>0.5967372004470155</v>
-      </c>
-      <c r="P8">
-        <v>0.5967372004470156</v>
-      </c>
-      <c r="Q8">
-        <v>5.526056249427779</v>
-      </c>
-      <c r="R8">
-        <v>49.73450624485</v>
-      </c>
-      <c r="S8">
-        <v>0.03743204449814282</v>
-      </c>
-      <c r="T8">
-        <v>0.03743204449814283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.07761666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.23285</v>
-      </c>
-      <c r="I9">
-        <v>0.06272785485822319</v>
-      </c>
-      <c r="J9">
-        <v>0.06272785485822319</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>31.69537100000001</v>
-      </c>
-      <c r="N9">
-        <v>95.08611300000001</v>
-      </c>
-      <c r="O9">
-        <v>0.2656553939680093</v>
-      </c>
-      <c r="P9">
-        <v>0.2656553939680093</v>
-      </c>
-      <c r="Q9">
-        <v>2.460089045783334</v>
-      </c>
-      <c r="R9">
-        <v>22.14080141205</v>
-      </c>
-      <c r="S9">
-        <v>0.01666399299512939</v>
-      </c>
-      <c r="T9">
-        <v>0.01666399299512939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.07761666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.23285</v>
-      </c>
-      <c r="I10">
-        <v>0.06272785485822319</v>
-      </c>
-      <c r="J10">
-        <v>0.06272785485822319</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.417953</v>
-      </c>
-      <c r="N10">
-        <v>49.25385900000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1376074055849752</v>
-      </c>
-      <c r="P10">
-        <v>0.1376074055849752</v>
-      </c>
-      <c r="Q10">
-        <v>1.27430678535</v>
-      </c>
-      <c r="R10">
-        <v>11.46876106815</v>
-      </c>
-      <c r="S10">
-        <v>0.008631817364950972</v>
-      </c>
-      <c r="T10">
-        <v>0.008631817364950974</v>
+        <v>0.2582396103435082</v>
       </c>
     </row>
   </sheetData>
